--- a/OrbisGame/Container/Data/KlimaDatensatz.xlsx
+++ b/OrbisGame/Container/Data/KlimaDatensatz.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Xufe\Dropbox\Rpg\Container\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\Dropbox\OrbisAstea\Rpg\Container\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1424C625-37AC-42EA-8DD6-A72B57E16264}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D307CC8-E706-4771-85E8-4805EA7EF2BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0B16964B-75C2-488F-8F5B-51B780CE2B46}"/>
+    <workbookView xWindow="-28920" yWindow="8100" windowWidth="29040" windowHeight="15840" xr2:uid="{0B16964B-75C2-488F-8F5B-51B780CE2B46}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -553,29 +553,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8034BEB-88D2-4D2A-B799-CF3A61A11F2A}">
   <dimension ref="A1:Z93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L8" sqref="L8"/>
+      <selection pane="bottomRight" activeCell="A75" sqref="A75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="2" width="14.140625" customWidth="1"/>
-    <col min="5" max="5" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="14.1171875" customWidth="1"/>
+    <col min="5" max="5" width="20.5859375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.87890625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.85546875" customWidth="1"/>
-    <col min="22" max="22" width="13.7109375" customWidth="1"/>
-    <col min="23" max="23" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.5859375" customWidth="1"/>
+    <col min="9" max="9" width="20.29296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.1171875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.87890625" customWidth="1"/>
+    <col min="22" max="22" width="13.703125" customWidth="1"/>
+    <col min="23" max="23" width="14.29296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -655,7 +655,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -979,7 +979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>33</v>
       </c>
@@ -1060,7 +1060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -1141,7 +1141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>33</v>
       </c>
@@ -1222,7 +1222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>33</v>
       </c>
@@ -1303,7 +1303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -1384,7 +1384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -1465,7 +1465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -1627,7 +1627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>30</v>
       </c>
@@ -1708,7 +1708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -1789,7 +1789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -1870,7 +1870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -1951,7 +1951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
         <v>39</v>
       </c>
@@ -2032,7 +2032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
         <v>39</v>
       </c>
@@ -2113,7 +2113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
         <v>39</v>
       </c>
@@ -2194,7 +2194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A21" t="s">
         <v>39</v>
       </c>
@@ -2275,7 +2275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A22" t="s">
         <v>42</v>
       </c>
@@ -2356,7 +2356,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A23" t="s">
         <v>42</v>
       </c>
@@ -2437,7 +2437,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A24" t="s">
         <v>42</v>
       </c>
@@ -2518,7 +2518,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A25" t="s">
         <v>42</v>
       </c>
@@ -2599,7 +2599,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
@@ -2680,7 +2680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A29" s="1" t="s">
         <v>26</v>
       </c>
@@ -2923,7 +2923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A30" t="s">
         <v>35</v>
       </c>
@@ -3004,7 +3004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A31" t="s">
         <v>35</v>
       </c>
@@ -3085,7 +3085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A32" t="s">
         <v>35</v>
       </c>
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A33" t="s">
         <v>35</v>
       </c>
@@ -3247,7 +3247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A34" t="s">
         <v>38</v>
       </c>
@@ -3328,7 +3328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A35" t="s">
         <v>38</v>
       </c>
@@ -3409,7 +3409,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A36" t="s">
         <v>38</v>
       </c>
@@ -3490,7 +3490,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A37" t="s">
         <v>38</v>
       </c>
@@ -3571,7 +3571,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A38" t="s">
         <v>22</v>
       </c>
@@ -3652,7 +3652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A39" t="s">
         <v>22</v>
       </c>
@@ -3733,7 +3733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A40" t="s">
         <v>22</v>
       </c>
@@ -3814,7 +3814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A41" t="s">
         <v>22</v>
       </c>
@@ -3895,7 +3895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -3976,7 +3976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -4057,7 +4057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A44" t="s">
         <v>41</v>
       </c>
@@ -4138,7 +4138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A45" t="s">
         <v>41</v>
       </c>
@@ -4219,7 +4219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A46" s="1" t="s">
         <v>34</v>
       </c>
@@ -4300,7 +4300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A47" s="1" t="s">
         <v>34</v>
       </c>
@@ -4381,7 +4381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A48" s="1" t="s">
         <v>34</v>
       </c>
@@ -4462,7 +4462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A49" s="1" t="s">
         <v>34</v>
       </c>
@@ -4543,7 +4543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A50" t="s">
         <v>28</v>
       </c>
@@ -4624,7 +4624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A51" t="s">
         <v>28</v>
       </c>
@@ -4705,7 +4705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A52" t="s">
         <v>28</v>
       </c>
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A53" t="s">
         <v>28</v>
       </c>
@@ -4867,7 +4867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A54" s="1" t="s">
         <v>27</v>
       </c>
@@ -4948,7 +4948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A55" s="1" t="s">
         <v>27</v>
       </c>
@@ -5029,7 +5029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A56" s="1" t="s">
         <v>27</v>
       </c>
@@ -5110,7 +5110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A57" s="1" t="s">
         <v>27</v>
       </c>
@@ -5191,7 +5191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A58" t="s">
         <v>19</v>
       </c>
@@ -5272,7 +5272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A59" t="s">
         <v>19</v>
       </c>
@@ -5353,7 +5353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A60" t="s">
         <v>19</v>
       </c>
@@ -5434,7 +5434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A61" t="s">
         <v>19</v>
       </c>
@@ -5515,7 +5515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A62" t="s">
         <v>37</v>
       </c>
@@ -5596,7 +5596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A63" t="s">
         <v>37</v>
       </c>
@@ -5677,7 +5677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A64" t="s">
         <v>37</v>
       </c>
@@ -5758,7 +5758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A65" t="s">
         <v>37</v>
       </c>
@@ -5839,7 +5839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A66" s="1" t="s">
         <v>32</v>
       </c>
@@ -5920,7 +5920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A67" s="1" t="s">
         <v>32</v>
       </c>
@@ -6001,7 +6001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A68" s="1" t="s">
         <v>32</v>
       </c>
@@ -6082,7 +6082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A69" s="1" t="s">
         <v>32</v>
       </c>
@@ -6163,7 +6163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A70" t="s">
         <v>21</v>
       </c>
@@ -6244,7 +6244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A71" t="s">
         <v>21</v>
       </c>
@@ -6325,7 +6325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A72" t="s">
         <v>21</v>
       </c>
@@ -6406,7 +6406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A73" t="s">
         <v>21</v>
       </c>
@@ -6487,7 +6487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A74" t="s">
         <v>23</v>
       </c>
@@ -6502,7 +6502,7 @@
         <v>6</v>
       </c>
       <c r="E74">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F74">
         <v>3</v>
@@ -6529,7 +6529,7 @@
         <v>2</v>
       </c>
       <c r="N74">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="O74">
         <v>22</v>
@@ -6547,7 +6547,7 @@
         <v>3</v>
       </c>
       <c r="T74">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="U74">
         <v>0</v>
@@ -6568,7 +6568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A75" t="s">
         <v>23</v>
       </c>
@@ -6583,10 +6583,10 @@
         <v>5</v>
       </c>
       <c r="E75">
-        <v>1</v>
+        <v>-7</v>
       </c>
       <c r="F75">
-        <v>4</v>
+        <v>-15</v>
       </c>
       <c r="G75">
         <v>-4</v>
@@ -6604,13 +6604,13 @@
         <v>5</v>
       </c>
       <c r="L75">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="M75">
         <v>4</v>
       </c>
       <c r="N75">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="O75">
         <v>23</v>
@@ -6628,7 +6628,7 @@
         <v>2</v>
       </c>
       <c r="T75">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="U75">
         <v>0</v>
@@ -6649,7 +6649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A76" t="s">
         <v>23</v>
       </c>
@@ -6664,10 +6664,10 @@
         <v>4</v>
       </c>
       <c r="E76">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F76">
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="G76">
         <v>0</v>
@@ -6691,7 +6691,7 @@
         <v>6</v>
       </c>
       <c r="N76">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O76">
         <v>29</v>
@@ -6709,7 +6709,7 @@
         <v>15</v>
       </c>
       <c r="T76">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="U76">
         <v>0</v>
@@ -6730,7 +6730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A77" t="s">
         <v>23</v>
       </c>
@@ -6745,10 +6745,10 @@
         <v>4</v>
       </c>
       <c r="E77">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F77">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="G77">
         <v>-1</v>
@@ -6766,7 +6766,7 @@
         <v>3</v>
       </c>
       <c r="L77">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="M77">
         <v>7</v>
@@ -6790,7 +6790,7 @@
         <v>8</v>
       </c>
       <c r="T77">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="U77">
         <v>0</v>
@@ -6811,7 +6811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A78" t="s">
         <v>36</v>
       </c>
@@ -6892,7 +6892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A79" t="s">
         <v>36</v>
       </c>
@@ -6973,7 +6973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A80" t="s">
         <v>36</v>
       </c>
@@ -7054,7 +7054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A81" t="s">
         <v>36</v>
       </c>
@@ -7135,7 +7135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A82" t="s">
         <v>29</v>
       </c>
@@ -7216,7 +7216,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A83" t="s">
         <v>29</v>
       </c>
@@ -7297,7 +7297,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A84" t="s">
         <v>29</v>
       </c>
@@ -7378,7 +7378,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A85" t="s">
         <v>29</v>
       </c>
@@ -7459,7 +7459,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A86" t="s">
         <v>40</v>
       </c>
@@ -7540,7 +7540,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A87" t="s">
         <v>40</v>
       </c>
@@ -7621,7 +7621,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A88" t="s">
         <v>40</v>
       </c>
@@ -7702,7 +7702,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A89" t="s">
         <v>40</v>
       </c>
@@ -7783,7 +7783,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A90" t="s">
         <v>25</v>
       </c>
@@ -7864,7 +7864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A91" t="s">
         <v>25</v>
       </c>
@@ -7945,7 +7945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A92" t="s">
         <v>25</v>
       </c>
@@ -8026,7 +8026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A93" t="s">
         <v>25</v>
       </c>
